--- a/data/adc.xlsx
+++ b/data/adc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="842">
   <si>
     <t>control_number</t>
   </si>
@@ -1775,7 +1775,28 @@
     <t>Epithelial cell adhesion molecule (EpCAM) is a transmembrane glycoprotein mediating Ca2+-independent homotypic cell-cell adhesion during cell signaling, migration, proliferation, and differentiation. EpCAM is expressed at high levels exclusively in epithelia and epithelial-derived neoplasms, making it a suitable target for many important solid tumor types and cancer stem cells. EpCam expression on normal tissues limits its utility as target for therapeutic antibodies and ADCs due to the potential effects on normal epithelial throughout the body. Conditionally Active Biologics (CAB) technology is a proprietary platform that selects antibodies that bind to target antigens in the context of diseased tissues, but not normal tissues, by taking advantage of the unique conditions in the tumor microenvironment. Using our CAB technology, we have developed CAB antibodies to EpCAM that reversibly bind to recombinant EpCAM and EpCAM expressing cells under select conditions that are present in the tumor microenvironment but not in normal tissues. In vitro and in vivo efficacy data for several anti-EpCAM antibodies and ADCs will be presented and suggest that conditionally active EpCam ADCs generated using the CAB technology will provide drug candidates that have an increased safety margin and therapeutic index in the clinic.</t>
   </si>
   <si>
-    <t>&lt;em&gt;under embargo&lt;/em&gt;</t>
+    <t>&lt;b&gt;Background:&lt;/b&gt; Human epidermal growth factor receptor 3 (HER3), a member of the ErbB receptor tyrosine kinase family, is overexpressed in a variety of human cancers and plays an important role in cell proliferation and survival. U3-1402 is a novel HER3-targeting antibody-drug conjugate (ADC) consisting of a fully human anti-HER3 antibody (patritumab), a tetrapeptide-based linker, and a topoisomerase I inhibitor payload. It is currently being investigated in clinical trials for HER3-positive breast cancer (phase 1/2) and NSCLC (phase 1). In principle, effective action of ADCs depends on multiple dynamic factors including antigen-specific binding, internalization, trafficking to lysosomes, and payload release, as well as other inherent characteristics such as payload potency and linker stability.&lt;br /&gt;&lt;b&gt;Methods:&lt;/b&gt; To assess the targeted delivery potential of U3-1402, the HER3-mediated molecular dynamics of U3-1402 (cell surface binding, internalization, trafficking, and payload release) were investigated in 8 cancer cell lines with various HER3 expression levels, along with cell growth inhibition activity. In vitro molecular dynamics were compared between U3-1402 and trastuzumab (anti-HER2 antibody) using the MDA-MB-453 cell line, which expresses both HER2 and HER3. The activity of patritumab (naked antibody of U3-1402) was tested. In vivo efficacy of U3-1402 was also evaluated and immunostaining of HER3 and γH2AX (marker of DNA double-stranded breaks) as well as drug concentration assessment were performed.&lt;br /&gt;&lt;b&gt;Results:&lt;/b&gt; U3-1402 bound to the cell surface of HER3-positive cell lines in HER3 expression level-dependent manner, and was then internalized into cells. Interestingly, the internalization rate of U3-1402 in MDA-MB-453 cells at 1 h was 64%, which was higher than that observed with trastuzumab (2%). Subsequently, U3-1402 was translocated to the lysosome, followed by payload release, leading to an improved cell growth inhibition compared to that noted with patritumab. In vivo antitumor efficacy was also demonstrated in a HER3-dependent manner in MDA-MB-453 xenograft model. In the study, internalization of HER3 from cell membrane into the intracellular compartment by U3-1402 treatment was observed, followed by increased free payload and γH2AX levels in tumor tissue.&lt;br /&gt;&lt;b&gt;Conclusion:&lt;/b&gt; U3-1402 has a high internalization property for effective payload delivery to HER3-expressing cancer cells, resulting in a favorable ADC-driven efficacy.</t>
+  </si>
+  <si>
+    <t>We introduce a novel and versatile ADC-linker technology that is based on site-specific enzymatic payload conjugation to ‘off-the-shelf’ antibodies, i.e., without the need to reduce or engineer the antibody. The functionalization takes place site-specifically and stoichiometrically (drug-to-antibody ratio, DAR = 2.0) at the Fc-part of antibodies. The resulting ADCs show favorable biophysical properties such as high solubility and stability using different payloads. Additionally, initial ELISA findings show that our modification does not interfere with Fc-gamma receptor and FcRn binding. Importantly, our ADCs showed superior efficacy in different tumor animal models as compared to control Thiomab™ ADCs. Using native trastuzumab (non-engineered) as the targeting antibody and amanitin as payload, we generated within 36 hours highly homogeneous and pure ADCs with a well-defined DAR of 2.0 as confirmed by LC-MS. In in-vitro assays our ADCs demonstrated potent cytotoxicity in all tested cell-lines (SKBR-3, BT-474, JIMT-1, and NCI-N87) as compared to the control Thiomab™ ADCs, most strikingly for the JIMT-1 cell-line: EC50 of 0.15nM vs 2.5nM. In the mouse JIMT-1 tumor model, our anti-HER2 ADC was highly potent and resulted in complete tumor remission in all mice (10/10 mice) at a single dose of 2mg/kg. In contrast, the control Thiomab™-functionalized ADC showed tumor regrowth in 4 out of 10 animals, starting on day 50. The same high potency was observed for the NCI-N87 xenograft model at a dose of 3mg/kg in which tumor growth inhibition was significantly delayed versus the reference ADC (8/10 vs 4/10 animals alive on day 110). These encouraging results obtained so far indicate that our linker technology a) allows for fast (&lt; 36 hours) and straightforward manufacturing of ADCs using different payloads without protein engineering efforts, b) results in ADCs with favorable biophysical properties and a clear defined drug-to-antibody ratio, and c) enables the generation of highly potent and stable, thus safer, next-generation ADCs.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Background:&lt;/b&gt; CX-2009 is a Probody™ drug conjugate (PDC) directed against CD166 (ubiquitously expressed in normal epithelium and overexpressed in carcinomas) that incorporates DM4, a potent but toxic microtubulin inhibitor (MTI). PDCs are preferentially activated by tumor microenvironment proteases with minimal binding in the inactive/masked state in nonmalignant tissue. Preclinically, CX-2009 led to significant tumor growth inhibition or regression in multiple solid tumor types. CX-2009 (masked) had extended exposure compared with the corresponding CD166-targeting ADC (unmasked), consistent with significantly reduced target-mediated drug disposition. These results indicate CX-2009 is efficiently activated in the tumor with low nonmalignant tissue engagement. Preliminary safety and antitumor activity from a first-in-human investigational dose escalation study are reported.&lt;br /&gt;&lt;b&gt;Methods:&lt;/b&gt; In the dose escalation of this ongoing phase 1/2 study (NCT03149549), 37 patients (pts) with advanced solid tumors received CX-2009 0.25-10 mg/kg IV every 21 days. 7 tumor types were enrolled in this study because of their high CD166 expression and MTI sensitivity: breast carcinoma (BC), castration-resistant prostate carcinoma, non-small cell lung carcinoma (NSCLC), epithelial ovarian carcinoma (EOC), endometrial carcinoma, head and neck squamous cell carcinoma, and cholangiocarcinoma. The study was initiated with accelerated dose titration in 1 single-subject cohort (0.25 mg/kg), followed by a standard 3+3 design up to 10 mg/kg to determine MTD.&lt;br /&gt;&lt;b&gt;Results:&lt;/b&gt; As of 30 Nov 2018, 37 pts were enrolled with advanced solid tumors (27% BC 27% EOC, 46% other) and a median of 6 (range 1-15) prior therapies. High CD166 by IHC was found in 14/24 tumors; median number of doses was 2 (range, 1-11), 19% of pts remain on treatment. One dose-limiting toxicity (grade 3 vomiting, 8 mg/kg) was observed. MTD was not reached at 10 mg/kg. Grade 1-2 treatment-related adverse events (TRAEs) occurred in 57% of pts and the most common (&gt;10%) were fatigue, anorexia (16% each), infusion-related reaction, diarrhea, and nausea (14% each). Grade 3-4 TRAEs were seen in 22% of pts (most frequently keratitis: 4 pts; 8, 9, and 10 mg/kg groups) and were managed and reversed with topical steroids. Of 25 pts evaluable for radiographic response, 3 had unconfirmed partial responses (BC, 8 and 9 mg/kg; EOC, 9 mg/kg; 2 CD166 high, 1 unknown; greatest tumoral shrinkage 85%) and 1 had durable stable disease for 24 weeks (NSCLC, 6 mg/kg, CD166 low).&lt;br /&gt;&lt;b&gt;&lt;/b&gt; &lt;b&gt;Conclusions: &lt;/b&gt;CX-2009 was tolerable at dose levels up to 10 mg/kg. Preliminary antitumor activity is observed at dose levels starting at 6 mg/kg and above, warranting further investigation. The study is ongoing, enrolling translational cohorts. PK data and data on Probody integrity in the periphery will be presented. Probody is a trademark of CytomX Therapeutics, Inc.&lt;br /&gt;&lt;b&gt;Source of Funding:&lt;/b&gt; CytomX Therapeutics, Inc.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Background: &lt;/b&gt;Sutro’s cell-free antibody production system was used to generate STRO-001, a novel CD74 targeting antibody drug conjugate. CD74 is expressed on B cells throughout differentiation and is an attractive target for treatment of B cell malignancies (Zhao et al, J Path Clin Res, Jan 2019). STRO-001 demonstrates potent cytotoxicity in non-Hodgkin lymphoma (NHL) and multiple myeloma (MM) cell lines and anti-tumor activity in xenograft models. Toxicology studies demonstrate dose-dependent B-cell depletion and reversible hematologic toxicity when STRO-001 is administered at up to 10 mg/kg (Solis et al, Proc AACR 2018, Abs 742).&lt;br /&gt;&lt;b&gt;Methods: &lt;/b&gt;This study (NCT03424603) is a first-in-human Phase 1, open-label, multicenter, dose escalation (Part 1) study with dose expansion (Part 2) to identify the maximum tolerated dose (MTD), recommended phase 2 doses (RP2D) and to evaluate the safety, tolerability, and preliminary anti-tumor activity of STRO-001 in adults with B-cell malignancies (MM and NHL) who are refractory to, or intolerant of, all therapy known to provide clinical benefit. STRO-001 is given to all patients on study via intravenous infusion on Day 1 and Day 15 of each cycle until disease progression. Dose limiting toxicities are assessed in the first cycle (Days 1-28) of dose escalation. In Part 1, 2 cohorts (1 for MM and 1 for NHL) will enroll 30 patients each to determine the MTD and RP2D for expansion while Part 2 will enroll 4 dose expansion cohorts based on disease subtypes (MM, diffuse large B cell, mantle cell and follicular lymphomas). Efficacy will be evaluated per MM-specific or NHL-specific criteria. Key inclusion criteria include relapsed or relapsed/refractory disease, adequate bone marrow and renal function, and ability to comply with treatment, testing and pharmacokinetic (PK) schedules. NHL patients must have at least one measurable lesion. Key exclusion criteria include leukemic manifestations of lymphoma, need for ongoing anti-coagulants or immunotherapy including systemic corticosteroids and a history of CNS involvement. Samples will be collected to assess the PK and immunogenicity. No formal statistical hypothesis testing will be conducted in this study. This study is currently open for enrollment in the US at the following sites: Medical College of Wisconsin, City of Hope, UCSF, Rocky Mountain Cancer Centers, Texas Oncology, Virginia Cancer Specialists, Winship Cancer Institute of Emory University, and the Willamette Valley Cancer Institute and Research Center.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Background: &lt;/b&gt;Folate receptor alpha (FolRα) is overexpressed in 80% of epithelial ovarian cancer (EOC) and endometrial adenocarcinoma (EC), with minimal expression on normal tissues and is thus a relevant target for cancer therapy using antibody drug conjugates (ADCs). STRO-002 is a novel, site-specific FolRα-targeting ADC that was generated using Sutro’s XpressCF+™ cell free protein synthesis platform. STRO-002 has highly specific cytotoxic activity on cells expressing FolRα. STRO-002 demonstrated reproducible and significant therapeutic efficacy in multiple preclinical models in vivo. STRO-002 activity was evaluated in EC patient-derived xenograft (PDX) models with a range of FolRα expression. Statistically significant efficacy was observed in 60% of the FolRα-positive PDX models tested, with response appearing to positively correlate with FolRα expression levels. Toxicology studies in cynomolgus monkeys demonstrate dose-dependent and reversible neutropenia when STRO-002 is administered at up to 9 mg/kg, with no evidence of ocular toxicity (Solis et al. AACR 2019).&lt;br /&gt;&lt;b&gt;Methods: &lt;/b&gt;This study is a first-in-human Phase 1, open-label, multicenter, dose escalation (Part 1) study with dose expansion (Part 2) to identify the maximum tolerated dose (MTD), recommended phase 2 doses (RP2D) and to evaluate the safety, tolerability, and preliminary anti-tumor activity of STRO-002 in adults with ovarian cancer and endometrial cancer who are refractory to, or intolerant of, therapies known to provide clinical benefit. STRO-002 is given to all patients on study via intravenous infusion on Day 1of each 21-day cycle until disease progression. Dose limiting toxicities will be assessed in the first cycle (Days 1-21) of dose escalation. Part 1 will enroll about 30 ovarian cancer patients to determine the MTD and RP2D for expansion while Part 2 will enroll 2 cohorts based on disease subtypes (ovarian or endometrial). Efficacy will be evaluated per RECIST 1.1 criteria. Key inclusion criteria include relapsed and or progressive disease, adequate bone marrow and renal function, and ability to comply with treatment, testing and pharmacokinetic (PK) schedules. Key exclusion criteria include clear cell, mucinous or sarcomatous ovarian carcinoma, prior treatment with a FolRα-targeting ADC, need for ongoing immunotherapy including systemic corticosteroids and a history of CNS involvement. Samples will be collected to assess FolRα expression levels, PK and immunogenicity. No formal statistical hypothesis testing will be conducted in this study. This study is currently open for enrollment in the US with the ClinicalTrials.gov Identifier: NCT03748186.&lt;b&gt;: &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Introduction:&lt;/b&gt; We report on the development and preclinical validation of NBE-002, a next-generation antibody drug conjugate (ADC) for the treatment of triple-negative breast cancer (TNBC). NBE-002 consists of a humanized monoclonal antibody directed against the receptor tyrosine kinase ROR1, expressed on the surface of numerous solid cancers including TNBC, and is site-specifically conjugated to a derivative of the highly potent anthracycline PNU-159682.&lt;br /&gt;&lt;b&gt;Results:&lt;/b&gt; Therapeutic efficacy of NBE-002 was evaluated in ROR1-low/-intermediate/-high patient-derived xenograft (PDX) models of TNBC, lung adenocarcinoma, ovarian carcinoma, and a variety of sarcomas. NBE-002 was found to display significant anti-tumor activity in each indication. The most pronounced effect was achieved in TNBC, where complete tumor regression was observed already at the lowest ADC dose tested (0.33 mg/kg), even in models expressing low levels of ROR1 (H-score ≤70). Since these PDX studies were performed in immune-compromised hosts, and anthracyclines are known inducers of immunogenic cell death, anti-tumor activity was also investigated in syngeneic tumor models in immune-competent hosts. Anti-tumor activity of PNU-ADCs involved activation of the immune system, as shown by evaluation of NBE-002 or a Trastuzumab-PNU conjugate (T-PNU) in ROR1- or HER2-positive syngeneic breast cancer models, respectively. Depletion of CD8 T cells severely reduced anti-tumor activity, demonstrating an important role for T cells in driving tumor regression. Furthermore, when tumor free animals were re-challenged with the same tumor, tumor growth was inhibited in the absence of any further ADC administration, indicating the development of an immunological memory. Notably, combination of ADC and checkpoint inhibition, such as α-PD1 or α-CTLA4, significantly enhanced tumor eradication following the treatment.&lt;br /&gt;&lt;b&gt;Conclusion:&lt;/b&gt; Our results demonstrate that NBE-002 is a highly effective and promising targeted therapeutic for the treatment of ROR1 positive TNBC and potentially other solid tumor indications that warrants clinical development. Considering the pronounced immune-modulatory functions of the PNU payload, NBE-002 may be particularly well suited for combination therapy with immune checkpoint inhibitors. NBE-002 is currently undergoing GMP manufacturing and initiation of clinical studies is expected in mid-2020.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Background of the study:&lt;/b&gt; [fam-] trastuzumab deruxtecan (DS‑8201a) is a HER2-targeting antibody-drug conjugate (ADC) with a humanized anti-HER2 monoclonal antibody attached to a topoisomerase I inhibitor payload by a peptide-based cleavable linker. [fam-] trastuzumab deruxtecan has been shown to be highly effective in preclinical and clinical studies. In addition to payload potency, drug-to-antibody ratio and linker stability, the effectiveness of the ADC is expected to be defined by intracellular molecular dynamics of the ADC/HER2 complex such as internalization activity, translocation to lysosomes and lysosomal enzyme-mediated linker cleavage. However, the machinery of ADC dynamics has not been studied quantitatively.&lt;br /&gt;&lt;b&gt;Methods:&lt;/b&gt; First, in vitro quantitative assays to study [fam-] trastuzumab deruxtecan intracellular dynamics were established. Second, differentially expressed gene (DEG) analysis among lysosome trafficking-high/low HER2 expressing cell lines was performed to understand intracellular dynamics. Third, functional relevance of the gene extracted from DEG analysis was assessed by siRNA-mediated in vitro knockdown study. Finally, to comprehend contribution of lysosome activity to intracellular dynamics of [fam-] trastuzumab deruxtecan, in vitro lysosome inhibition studies were performed using bafilomycin A1. Then, impact of autophagy activation on the dynamics was studied with mTOR inhibitor everolimus.&lt;br /&gt;&lt;b&gt;Results:&lt;/b&gt; [Fam-] trastuzumab deruxtecan bound to the cell surface of HER2 expressing cell lines in expression level-dependent manner. Lysosome trafficking study revealed that two cell lines, JIMT1 and MDA-MB-453, showed high trafficking activity for the modest HER2 expression. DEG analysis result exhibited that lysosome-related genes were significantly upregulated in the two cell lines, which suggested involvement of lysosome activity in ADC dynamics. Lysosome trafficking of [fam-] trastuzumab deruxtecan was hampered by knockdown of such genes. Lysosome is supposed to be the endpoint of ADC processing and its activity itself might affect the ADC activity. Inhibition of lysosome activity by bafilomycin A1 resulted in weakening ADC dynamics in the cell lines. In addition, contribution of lysosome activation via autophagy stimulation using everolimus resulted in activation of lysosome trafficking of the ADC in MDA-MB-453.&lt;br /&gt;&lt;b&gt;Conclusion:&lt;/b&gt; In vitro quantitative analyses of intracellular [fam-] trastuzumab deruxtecan dynamics revealed that lysosome related activity played important roles in the ADC dynamics. As lysosome activity is known to be modulated by autophagy mechanism, influence of autophagy activation to ADC dynamics was elucidated in this study. The results obtained suggest a scientific rationale for combo treatment of ADC and autophagy activator as well as the advantage of ADC on autophagy-active cancers.</t>
+  </si>
+  <si>
+    <t>T-DM1, an antibody drug conjugate (ADC), has been approved by FDA for patients with HER2-positive, metastatic breast cancer who previously received trastuzumab and a taxane. DM1 is released because it is connected to the linker of T-DM1 by a thio-ether bond, which can be broken via retro-Michael addition. To improve the antibody-drug stability, we created an anti-HER2 ADC (BAT8001) which used a novel uncleavable linker to connect trastuzumab and a payload of maytansine derivative. BAT8001 exhibits similar level of potency against proliferation of HER2-overexpressed cells as T-DM1 and demonstrates strong inhibition activity on tumor growth in both cell-line and patient-derived xenograft models. Pharmacokinetics (PK) study in monkey reveals BAT8001 has similar level of exposure, half-life, and Cmax as T-DM1. BAT8001 Ph1 clinical trial in patients with HER2+ late-stage breast cancer recently was completed. The clinical study used standard “3+3” multiple-dose escalation method, evaluated BAT8001 safety, PK and explored the efficacy. Twenty-nine subjects were randomized and 27 subjects received the treatment with escalated dose 1.2mg/kg, 2.4mg/kg,3.6mg/kg, 4.8mg/kg and 6.0mg/kg. Two subjects died during the screening time without treatment due to disease progression. Nineteen (79.2%) subjects completed at least 4-cycle treatment. The PK parameter (C&lt;sub&gt;max&lt;/sub&gt; and AUC&lt;sub&gt;(0-t)&lt;/sub&gt;) values demonstrated dose-dependent linear relationship. In the safety evaluation, the incidences of AE and AE with CTCAE &gt;=3 increased when dose escalated. The platelet count decrease and AST elevation were found to be the most common and severe AEs. Three subjects had serious adverse events (SAE) of bone destruction which were considered to be not investigated-drug related by the PI. Among those 3 subjects, 2 subjects withdrew from the study due to the SAE and 1 subject continued the treatment. The preliminary efficacy assessment after 10 months treatment found that 1 (3.7%) patient exhibited the complete response (CR), 5 (18.5%) patients exhibited the partial responses (PR), and 5(18.5%) patients exhibited the stable diseases. Based on the information above, the dose of 3.6mg/kg achieved target drug exposure and was found to be the effective and well-tolerated, which was selected to be the dose in the confirmatory clinical trial. Currently, a Phase 3, multicenter, randomized, open-label, controlled trial evaluating the efficacy and safety of BAT8001 has been initiated in patients with HER2+ metastatic breast cancer who previously received trastuzumab separately or in combination with taxanes. The trial is designed to compare BAT8001 versus lapatinib combined with capecitabine which is 2nd-line standard of care for metastatic breast cancer patients in China. This Phase 3 trial plans to recruit approximately 410 patients and by Jan 2019 more than 130 patients have received the treatment of BAT8001. The BAT8001 benefit-risk profile continues to support further development and the clinical results will be revealed by early 2020.</t>
   </si>
   <si>
     <t>Immunohistochemistry</t>
@@ -2679,22 +2700,22 @@
         <v>512</v>
       </c>
       <c r="P2" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="Q2" t="s">
         <v>104</v>
       </c>
       <c r="R2" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S2" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="T2" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="U2" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3">
@@ -2744,22 +2765,22 @@
         <v>513</v>
       </c>
       <c r="P3" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="Q3" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R3" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S3" t="e">
         <v>#N/A</v>
       </c>
       <c r="T3" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="U3" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4">
@@ -2809,10 +2830,10 @@
         <v>514</v>
       </c>
       <c r="P4" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q4" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="R4" t="e">
         <v>#N/A</v>
@@ -2824,7 +2845,7 @@
         <v>#N/A</v>
       </c>
       <c r="U4" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5">
@@ -2874,22 +2895,22 @@
         <v>515</v>
       </c>
       <c r="P5" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q5" t="s">
         <v>107</v>
       </c>
       <c r="R5" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="S5" t="e">
         <v>#N/A</v>
       </c>
       <c r="T5" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="U5" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6">
@@ -2939,22 +2960,22 @@
         <v>516</v>
       </c>
       <c r="P6" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="Q6" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="R6" t="s">
         <v>108</v>
       </c>
       <c r="S6" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="T6" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="U6" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7">
@@ -3004,22 +3025,22 @@
         <v>517</v>
       </c>
       <c r="P7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="R7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="S7" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="T7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="U7" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8">
@@ -3069,22 +3090,22 @@
         <v>518</v>
       </c>
       <c r="P8" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="Q8" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="R8" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S8" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="T8" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="U8" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9">
@@ -3134,22 +3155,22 @@
         <v>519</v>
       </c>
       <c r="P9" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R9" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="S9" t="e">
         <v>#N/A</v>
       </c>
       <c r="T9" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="U9" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10">
@@ -3199,7 +3220,7 @@
         <v>520</v>
       </c>
       <c r="P10" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q10" t="s">
         <v>112</v>
@@ -3211,10 +3232,10 @@
         <v>#N/A</v>
       </c>
       <c r="T10" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="U10" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11">
@@ -3264,10 +3285,10 @@
         <v>521</v>
       </c>
       <c r="P11" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q11" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="R11" t="e">
         <v>#N/A</v>
@@ -3276,10 +3297,10 @@
         <v>#N/A</v>
       </c>
       <c r="T11" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="U11" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12">
@@ -3329,22 +3350,22 @@
         <v>522</v>
       </c>
       <c r="P12" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q12" t="s">
         <v>114</v>
       </c>
       <c r="R12" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="S12" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="T12" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="U12" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13">
@@ -3394,10 +3415,10 @@
         <v>523</v>
       </c>
       <c r="P13" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q13" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="R13" t="s">
         <v>166</v>
@@ -3406,10 +3427,10 @@
         <v>#N/A</v>
       </c>
       <c r="T13" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="U13" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="14">
@@ -3459,22 +3480,22 @@
         <v>524</v>
       </c>
       <c r="P14" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="Q14" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="R14" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="S14" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="T14" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="U14" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
     </row>
     <row r="15">
@@ -3524,22 +3545,22 @@
         <v>525</v>
       </c>
       <c r="P15" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="Q15" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="R15" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="S15" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="T15" t="e">
         <v>#N/A</v>
       </c>
       <c r="U15" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16">
@@ -3589,22 +3610,22 @@
         <v>526</v>
       </c>
       <c r="P16" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="Q16" t="s">
         <v>114</v>
       </c>
       <c r="R16" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S16" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="T16" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="U16" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17">
@@ -3654,13 +3675,13 @@
         <v>527</v>
       </c>
       <c r="P17" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="Q17" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="R17" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="S17" t="e">
         <v>#N/A</v>
@@ -3669,7 +3690,7 @@
         <v>#N/A</v>
       </c>
       <c r="U17" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
     </row>
     <row r="18">
@@ -3719,22 +3740,22 @@
         <v>528</v>
       </c>
       <c r="P18" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="Q18" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="R18" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="S18" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="T18" t="e">
         <v>#N/A</v>
       </c>
       <c r="U18" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19">
@@ -3784,13 +3805,13 @@
         <v>529</v>
       </c>
       <c r="P19" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q19" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="R19" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="S19" t="e">
         <v>#N/A</v>
@@ -3799,7 +3820,7 @@
         <v>#N/A</v>
       </c>
       <c r="U19" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20">
@@ -3849,22 +3870,22 @@
         <v>530</v>
       </c>
       <c r="P20" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q20" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="R20" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="S20" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="T20" t="e">
         <v>#N/A</v>
       </c>
       <c r="U20" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
     </row>
     <row r="21">
@@ -3914,22 +3935,22 @@
         <v>531</v>
       </c>
       <c r="P21" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q21" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="R21" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="S21" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="T21" t="e">
         <v>#N/A</v>
       </c>
       <c r="U21" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22">
@@ -3979,22 +4000,22 @@
         <v>532</v>
       </c>
       <c r="P22" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q22" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="R22" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="S22" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="T22" t="e">
         <v>#N/A</v>
       </c>
       <c r="U22" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="23">
@@ -4047,19 +4068,19 @@
         <v>119</v>
       </c>
       <c r="Q23" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="R23" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="S23" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="T23" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="U23" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24">
@@ -4109,22 +4130,22 @@
         <v>534</v>
       </c>
       <c r="P24" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q24" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="R24" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S24" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="T24" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="U24" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
     </row>
     <row r="25">
@@ -4174,22 +4195,22 @@
         <v>535</v>
       </c>
       <c r="P25" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q25" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="R25" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="S25" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="T25" t="e">
         <v>#N/A</v>
       </c>
       <c r="U25" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26">
@@ -4239,22 +4260,22 @@
         <v>536</v>
       </c>
       <c r="P26" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="Q26" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="R26" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="S26" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="T26" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="U26" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27">
@@ -4304,22 +4325,22 @@
         <v>537</v>
       </c>
       <c r="P27" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q27" t="s">
         <v>107</v>
       </c>
       <c r="R27" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="S27" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="T27" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="U27" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
     </row>
     <row r="28">
@@ -4369,22 +4390,22 @@
         <v>538</v>
       </c>
       <c r="P28" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q28" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="R28" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="S28" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="T28" t="e">
         <v>#N/A</v>
       </c>
       <c r="U28" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
     </row>
     <row r="29">
@@ -4434,22 +4455,22 @@
         <v>539</v>
       </c>
       <c r="P29" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="Q29" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="R29" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="S29" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="T29" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="U29" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
     </row>
     <row r="30">
@@ -4499,22 +4520,22 @@
         <v>540</v>
       </c>
       <c r="P30" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="Q30" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="R30" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="S30" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="T30" t="e">
         <v>#N/A</v>
       </c>
       <c r="U30" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="31">
@@ -4564,22 +4585,22 @@
         <v>541</v>
       </c>
       <c r="P31" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q31" t="s">
         <v>602</v>
       </c>
-      <c r="Q31" t="s">
-        <v>595</v>
-      </c>
       <c r="R31" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="S31" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="T31" t="e">
         <v>#N/A</v>
       </c>
       <c r="U31" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
     </row>
     <row r="32">
@@ -4629,10 +4650,10 @@
         <v>542</v>
       </c>
       <c r="P32" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q32" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="R32" t="e">
         <v>#N/A</v>
@@ -4641,10 +4662,10 @@
         <v>#N/A</v>
       </c>
       <c r="T32" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="U32" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="33">
@@ -4694,22 +4715,22 @@
         <v>543</v>
       </c>
       <c r="P33" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q33" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="R33" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="S33" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="T33" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="U33" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
     </row>
     <row r="34">
@@ -4759,22 +4780,22 @@
         <v>544</v>
       </c>
       <c r="P34" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="Q34" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="R34" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="S34" t="e">
         <v>#N/A</v>
       </c>
       <c r="T34" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="U34" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
     </row>
     <row r="35">
@@ -4824,22 +4845,22 @@
         <v>545</v>
       </c>
       <c r="P35" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q35" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="R35" t="s">
         <v>126</v>
       </c>
       <c r="S35" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="T35" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="U35" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
     </row>
     <row r="36">
@@ -4889,22 +4910,22 @@
         <v>546</v>
       </c>
       <c r="P36" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="Q36" t="s">
         <v>107</v>
       </c>
       <c r="R36" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="S36" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="T36" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="U36" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
     </row>
     <row r="37">
@@ -4954,22 +4975,22 @@
         <v>547</v>
       </c>
       <c r="P37" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="Q37" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R37" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="S37" t="e">
         <v>#N/A</v>
       </c>
       <c r="T37" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="U37" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
     </row>
     <row r="38">
@@ -5019,22 +5040,22 @@
         <v>548</v>
       </c>
       <c r="P38" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="Q38" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="R38" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="S38" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="T38" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="U38" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
     </row>
     <row r="39">
@@ -5084,13 +5105,13 @@
         <v>549</v>
       </c>
       <c r="P39" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q39" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="R39" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="S39" t="e">
         <v>#N/A</v>
@@ -5099,7 +5120,7 @@
         <v>#N/A</v>
       </c>
       <c r="U39" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
     <row r="40">
@@ -5149,22 +5170,22 @@
         <v>550</v>
       </c>
       <c r="P40" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q40" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="R40" t="s">
         <v>107</v>
       </c>
       <c r="S40" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="T40" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="U40" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
     </row>
     <row r="41">
@@ -5214,22 +5235,22 @@
         <v>551</v>
       </c>
       <c r="P41" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="Q41" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="R41" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="S41" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="T41" t="e">
         <v>#N/A</v>
       </c>
       <c r="U41" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42">
@@ -5279,22 +5300,22 @@
         <v>552</v>
       </c>
       <c r="P42" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="Q42" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="R42" t="s">
         <v>107</v>
       </c>
       <c r="S42" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="T42" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="U42" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
     </row>
     <row r="43">
@@ -5344,22 +5365,22 @@
         <v>553</v>
       </c>
       <c r="P43" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q43" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="R43" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="S43" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="T43" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="U43" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44">
@@ -5409,22 +5430,22 @@
         <v>554</v>
       </c>
       <c r="P44" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q44" t="s">
         <v>118</v>
       </c>
       <c r="R44" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="S44" t="e">
         <v>#N/A</v>
       </c>
       <c r="T44" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="U44" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
     </row>
     <row r="45">
@@ -5474,22 +5495,22 @@
         <v>555</v>
       </c>
       <c r="P45" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q45" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="R45" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="S45" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="T45" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="U45" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
     </row>
     <row r="46">
@@ -5539,22 +5560,22 @@
         <v>556</v>
       </c>
       <c r="P46" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q46" t="s">
         <v>107</v>
       </c>
       <c r="R46" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="S46" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="T46" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="U46" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="47">
@@ -5604,10 +5625,10 @@
         <v>557</v>
       </c>
       <c r="P47" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q47" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="R47" t="e">
         <v>#N/A</v>
@@ -5619,7 +5640,7 @@
         <v>#N/A</v>
       </c>
       <c r="U47" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
     </row>
     <row r="48">
@@ -5669,22 +5690,22 @@
         <v>558</v>
       </c>
       <c r="P48" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q48" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="R48" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="S48" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="T48" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="U48" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="49">
@@ -5734,22 +5755,22 @@
         <v>559</v>
       </c>
       <c r="P49" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="Q49" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R49" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="S49" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="T49" t="e">
         <v>#N/A</v>
       </c>
       <c r="U49" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
     </row>
     <row r="50">
@@ -5799,22 +5820,22 @@
         <v>560</v>
       </c>
       <c r="P50" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q50" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="R50" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="S50" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="T50" t="e">
         <v>#N/A</v>
       </c>
       <c r="U50" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
     </row>
     <row r="51">
@@ -5864,22 +5885,22 @@
         <v>561</v>
       </c>
       <c r="P51" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q51" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="R51" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="S51" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="T51" t="e">
         <v>#N/A</v>
       </c>
       <c r="U51" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
     </row>
     <row r="52">
@@ -5929,22 +5950,22 @@
         <v>562</v>
       </c>
       <c r="P52" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q52" t="s">
         <v>133</v>
       </c>
       <c r="R52" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="S52" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="T52" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="U52" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="53">
@@ -5994,22 +6015,22 @@
         <v>563</v>
       </c>
       <c r="P53" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>597</v>
+      </c>
+      <c r="R53" t="s">
         <v>611</v>
       </c>
-      <c r="Q53" t="s">
-        <v>590</v>
-      </c>
-      <c r="R53" t="s">
-        <v>604</v>
-      </c>
       <c r="S53" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="T53" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="U53" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
     </row>
     <row r="54">
@@ -6059,22 +6080,22 @@
         <v>564</v>
       </c>
       <c r="P54" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q54" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="R54" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="S54" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="T54" t="e">
         <v>#N/A</v>
       </c>
       <c r="U54" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
     <row r="55">
@@ -6124,22 +6145,22 @@
         <v>565</v>
       </c>
       <c r="P55" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q55" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="R55" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="S55" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="T55" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="U55" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="56">
@@ -6189,7 +6210,7 @@
         <v>566</v>
       </c>
       <c r="P56" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q56" t="e">
         <v>#N/A</v>
@@ -6201,10 +6222,10 @@
         <v>#N/A</v>
       </c>
       <c r="T56" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="U56" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
     </row>
     <row r="57">
@@ -6254,22 +6275,22 @@
         <v>567</v>
       </c>
       <c r="P57" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q57" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="R57" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="S57" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="T57" t="e">
         <v>#N/A</v>
       </c>
       <c r="U57" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
     </row>
     <row r="58">
@@ -6319,22 +6340,22 @@
         <v>568</v>
       </c>
       <c r="P58" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q58" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R58" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="S58" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="T58" t="e">
         <v>#N/A</v>
       </c>
       <c r="U58" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="59">
@@ -6384,22 +6405,22 @@
         <v>569</v>
       </c>
       <c r="P59" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q59" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="R59" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="S59" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="T59" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="U59" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
     </row>
     <row r="60">
@@ -6449,22 +6470,22 @@
         <v>570</v>
       </c>
       <c r="P60" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q60" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="R60" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="S60" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="T60" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="U60" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
     </row>
     <row r="61">
@@ -6514,22 +6535,22 @@
         <v>571</v>
       </c>
       <c r="P61" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q61" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="R61" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="S61" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="T61" t="e">
         <v>#N/A</v>
       </c>
       <c r="U61" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
     </row>
     <row r="62">
@@ -6579,22 +6600,22 @@
         <v>572</v>
       </c>
       <c r="P62" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="Q62" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R62" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="S62" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="T62" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="U62" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63">
@@ -6644,22 +6665,22 @@
         <v>573</v>
       </c>
       <c r="P63" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="Q63" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R63" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="S63" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="T63" t="e">
         <v>#N/A</v>
       </c>
       <c r="U63" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
     </row>
     <row r="64">
@@ -6709,13 +6730,13 @@
         <v>574</v>
       </c>
       <c r="P64" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q64" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="R64" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="S64" t="e">
         <v>#N/A</v>
@@ -6724,7 +6745,7 @@
         <v>#N/A</v>
       </c>
       <c r="U64" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="65">
@@ -6774,10 +6795,10 @@
         <v>575</v>
       </c>
       <c r="P65" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="Q65" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="R65" t="e">
         <v>#N/A</v>
@@ -6786,10 +6807,10 @@
         <v>#N/A</v>
       </c>
       <c r="T65" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="U65" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
     </row>
     <row r="66">
@@ -6839,22 +6860,22 @@
         <v>576</v>
       </c>
       <c r="P66" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="Q66" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R66" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="S66" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="T66" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="U66" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="67">
@@ -6904,22 +6925,22 @@
         <v>577</v>
       </c>
       <c r="P67" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="Q67" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="R67" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="S67" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="T67" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="U67" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
     </row>
     <row r="68">
@@ -6969,22 +6990,22 @@
         <v>578</v>
       </c>
       <c r="P68" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q68" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R68" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="S68" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="T68" t="e">
         <v>#N/A</v>
       </c>
       <c r="U68" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
     </row>
     <row r="69">
@@ -7034,22 +7055,22 @@
         <v>579</v>
       </c>
       <c r="P69" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="Q69" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="R69" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="S69" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="T69" t="e">
         <v>#N/A</v>
       </c>
       <c r="U69" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
     </row>
     <row r="70">
@@ -7099,13 +7120,13 @@
         <v>580</v>
       </c>
       <c r="P70" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q70" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="R70" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="S70" t="e">
         <v>#N/A</v>
@@ -7114,7 +7135,7 @@
         <v>#N/A</v>
       </c>
       <c r="U70" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
     </row>
     <row r="71">
@@ -7164,22 +7185,22 @@
         <v>581</v>
       </c>
       <c r="P71" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q71" t="s">
         <v>142</v>
       </c>
       <c r="R71" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="S71" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="T71" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="U71" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
     </row>
     <row r="72">
@@ -7229,22 +7250,22 @@
         <v>582</v>
       </c>
       <c r="P72" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="Q72" t="s">
         <v>133</v>
       </c>
       <c r="R72" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="S72" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="T72" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="U72" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
     </row>
     <row r="73">
@@ -7294,22 +7315,22 @@
         <v>583</v>
       </c>
       <c r="P73" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q73" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="R73" t="e">
         <v>#N/A</v>
       </c>
       <c r="S73" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="T73" t="e">
         <v>#N/A</v>
       </c>
       <c r="U73" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
     </row>
     <row r="74">
@@ -7359,13 +7380,13 @@
         <v>584</v>
       </c>
       <c r="P74" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q74" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="R74" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="S74" t="e">
         <v>#N/A</v>
@@ -7374,7 +7395,7 @@
         <v>#N/A</v>
       </c>
       <c r="U74" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
     </row>
     <row r="75">
@@ -7424,10 +7445,10 @@
         <v>585</v>
       </c>
       <c r="P75" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="Q75" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="R75" t="e">
         <v>#N/A</v>
@@ -7436,10 +7457,10 @@
         <v>#N/A</v>
       </c>
       <c r="T75" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="U75" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
     </row>
     <row r="76">
@@ -7489,22 +7510,22 @@
         <v>586</v>
       </c>
       <c r="P76" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="Q76" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R76" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="S76" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="T76" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="U76" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
     </row>
     <row r="77">
@@ -7554,22 +7575,22 @@
         <v>587</v>
       </c>
       <c r="P77" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="Q77" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R77" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="S77" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="T77" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="U77" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
     </row>
     <row r="78">
@@ -7616,25 +7637,25 @@
         <v>506</v>
       </c>
       <c r="O78" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P78" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q78" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="R78" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="S78" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="T78" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="U78" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
     </row>
     <row r="79">
@@ -7681,25 +7702,25 @@
         <v>507</v>
       </c>
       <c r="O79" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="P79" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q79" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="R79" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="S79" t="e">
         <v>#N/A</v>
       </c>
       <c r="T79" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="U79" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
     </row>
     <row r="80">
@@ -7746,25 +7767,25 @@
         <v>508</v>
       </c>
       <c r="O80" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="P80" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="Q80" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="R80" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="S80" t="s">
+        <v>617</v>
+      </c>
+      <c r="T80" t="s">
         <v>610</v>
       </c>
-      <c r="T80" t="s">
-        <v>603</v>
-      </c>
       <c r="U80" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
     </row>
     <row r="81">
@@ -7811,25 +7832,25 @@
         <v>508</v>
       </c>
       <c r="O81" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="P81" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="Q81" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R81" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="S81" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="T81" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="U81" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
     </row>
     <row r="82">
@@ -7876,25 +7897,25 @@
         <v>509</v>
       </c>
       <c r="O82" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="P82" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q82" t="s">
         <v>119</v>
       </c>
       <c r="R82" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="S82" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="T82" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="U82" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
     </row>
     <row r="83">
@@ -7941,25 +7962,25 @@
         <v>510</v>
       </c>
       <c r="O83" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="P83" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q83" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="R83" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="S83" t="s">
         <v>107</v>
       </c>
       <c r="T83" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="U83" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
     </row>
     <row r="84">
@@ -8006,25 +8027,25 @@
         <v>511</v>
       </c>
       <c r="O84" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="P84" t="s">
         <v>107</v>
       </c>
       <c r="Q84" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="R84" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="S84" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="T84" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="U84" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
